--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value912.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value912.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.752382000482458</v>
+        <v>1.242871403694153</v>
       </c>
       <c r="B1">
-        <v>1.828671158568839</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.045825480433797</v>
+        <v>2.275062084197998</v>
       </c>
       <c r="D1">
-        <v>3.132175383872398</v>
+        <v>1.292945742607117</v>
       </c>
       <c r="E1">
-        <v>2.1134504994921</v>
+        <v>0.9337817430496216</v>
       </c>
     </row>
   </sheetData>
